--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16CACA2-49DB-A848-8B33-26627E1B54CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C63FF-7351-1441-8A20-20565D388A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39340" yWindow="-12500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="42520" yWindow="-3740" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>key</t>
   </si>
@@ -246,23 +246,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待办队列</t>
+    <t>act.up.duty.created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.duty.created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/duty/created</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程管理/待办管理</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act.up.duty.created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.up.duty.created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/up/duty/created</t>
+    <t>流程管理/流程数据管理</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.workflow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按编码读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542372d2-f1a1-4b46-9a3b-5e75f20be131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.workflow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26cf9250-1238-4c23-9017-0284298412a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4228d452-264b-401b-b7b8-88f14b75a1c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.workflow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/workflow/:code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K26"/>
+  <dimension ref="A2:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -919,7 +971,7 @@
     <col min="4" max="4" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
@@ -977,319 +1029,405 @@
         <v>61</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:9" s="22" customFormat="1">
+      <c r="A6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>39</v>
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>54</v>
+      <c r="A10" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:11">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F18" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="10" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="16" t="str">
-        <f t="shared" ref="B18" si="0">A24</f>
+      <c r="B19" s="16" t="str">
+        <f t="shared" ref="B19" si="0">A26</f>
         <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
-      <c r="C18" s="16" t="str">
-        <f>A10</f>
+      <c r="C19" s="16" t="str">
+        <f>A11</f>
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D19" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="16" t="str">
+        <f t="shared" ref="B20" si="1">A27</f>
+        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
+      </c>
+      <c r="C20" s="16" t="str">
+        <f>A12</f>
+        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="4"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="4"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="12">
+      <c r="E26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="4"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="4"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="12">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="14"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="K26" s="14"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="14"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="K28" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C23:I23"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3C63FF-7351-1441-8A20-20565D388A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901EB7B-5367-C746-B258-103F7AEAF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42520" yWindow="-3740" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43020" yWindow="-1960" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
   <si>
     <t>key</t>
   </si>
@@ -315,6 +315,46 @@
   </si>
   <si>
     <t>/api/up/workflow/:code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.duty-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.duty-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.duty-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/duty-form/:pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6de3a8a2-317e-476d-942d-cb90ae096aa4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42a2877f-0ac2-479e-9fee-c15a9fc6e287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18aee330-9587-4332-a671-7cab00164036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf8f7ea7-4a99-430d-aefa-b6e2e8dfdd22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K28"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1049,385 +1089,471 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:9" s="22" customFormat="1">
+      <c r="A7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>54</v>
+      <c r="A11" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C17" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="5" t="s">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="16" t="str">
-        <f t="shared" ref="B19" si="0">A26</f>
-        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
-      </c>
-      <c r="C19" s="16" t="str">
-        <f>A11</f>
-        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B20" s="16" t="str">
-        <f t="shared" ref="B20" si="1">A27</f>
-        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
+        <f t="shared" ref="B20" si="0">A28</f>
+        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C20" s="16" t="str">
         <f>A12</f>
-        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H20" s="12">
         <v>1</v>
       </c>
       <c r="I20" s="12"/>
-      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="16" t="str">
+        <f t="shared" ref="B21" si="1">A29</f>
+        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
+      </c>
+      <c r="C21" s="16" t="str">
+        <f>A13</f>
+        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12"/>
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="16" t="str">
+        <f t="shared" ref="B22" si="2">A30</f>
+        <v>18aee330-9587-4332-a671-7cab00164036</v>
+      </c>
+      <c r="C22" s="16" t="str">
+        <f>A14</f>
+        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="12">
+        <v>4</v>
+      </c>
+      <c r="I22" s="12"/>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="4"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="4"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="5" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G26" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H26" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I26" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I27" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G28" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10" t="s">
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G29" s="12">
         <v>1</v>
       </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="14"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="K28" s="14"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="12">
+        <v>4</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="14"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="K31" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C25:I25"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6901EB7B-5367-C746-B258-103F7AEAF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251D057-6E04-D947-8943-E20C2FCFACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43020" yWindow="-1960" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="43720" yWindow="-14760" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>key</t>
   </si>
@@ -242,119 +242,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>perm.up.duty.created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.up.duty.created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.up.duty.created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/up/duty/created</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程管理/待办管理</t>
+    <t>w.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按编码读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542372d2-f1a1-4b46-9a3b-5e75f20be131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26cf9250-1238-4c23-9017-0284298412a9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4228d452-264b-401b-b7b8-88f14b75a1c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui.form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程表单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6de3a8a2-317e-476d-942d-cb90ae096aa4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42a2877f-0ac2-479e-9fee-c15a9fc6e287</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18aee330-9587-4332-a671-7cab00164036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf8f7ea7-4a99-430d-aefa-b6e2e8dfdd22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-form/:pre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/:code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f0174ff-2f59-4858-9c94-aaa093fe887d</t>
+  </si>
+  <si>
+    <t>12bb17f2-233a-4eef-99ca-0037edc55088</t>
+  </si>
+  <si>
+    <t>流程管理/流程数据</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>流程管理/流程数据管理</t>
+    <t>流程管理/流程引擎</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>perm.up.workflow.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w.flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按编码读取流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>542372d2-f1a1-4b46-9a3b-5e75f20be131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.up.workflow.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26cf9250-1238-4c23-9017-0284298412a9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4228d452-264b-401b-b7b8-88f14b75a1c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.up.workflow.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/up/workflow/:code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui.form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.up.duty-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读取流程表单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res.up.duty-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>act.up.duty-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/up/duty-form/:pre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6de3a8a2-317e-476d-942d-cb90ae096aa4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42a2877f-0ac2-479e-9fee-c15a9fc6e287</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18aee330-9587-4332-a671-7cab00164036</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bf8f7ea7-4a99-430d-aefa-b6e2e8dfdd22</t>
+    <t>53034cb4-4be1-4c71-bf51-938add8a1643</t>
+  </si>
+  <si>
+    <t>de5b170e-bf1e-487a-b48b-798edef82258</t>
+  </si>
+  <si>
+    <t>act.up.flow.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow-form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ad173b3-7d69-40ec-9089-97f3ac043b6a</t>
+  </si>
+  <si>
+    <t>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</t>
+  </si>
+  <si>
+    <t>25cdb149-71ba-44dd-aa2c-036d02c72e87</t>
+  </si>
+  <si>
+    <t>1c1fb284-6647-4e15-9819-f8c13729bac0</t>
+  </si>
+  <si>
+    <t>act.up.flow.start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow.complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/complete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,7 +426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -418,13 +482,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -574,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -636,9 +693,8 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -999,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K31"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1027,8 +1083,8 @@
       <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -1065,495 +1121,667 @@
       <c r="A5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="B5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="22" customFormat="1">
+      <c r="A8" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="26" t="s">
+      <c r="C8" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" s="22" customFormat="1">
+      <c r="A9" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>54</v>
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>69</v>
-      </c>
+      <c r="A13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="16" t="str">
+        <f t="shared" ref="B24" si="0">A34</f>
+        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
+      </c>
+      <c r="C24" s="16" t="str">
+        <f>A14</f>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="12">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="16" t="str">
+        <f t="shared" ref="B25" si="1">A35</f>
+        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>A15</f>
+        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="12">
+        <v>1</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="16" t="str">
+        <f t="shared" ref="B26" si="2">A36</f>
+        <v>18aee330-9587-4332-a671-7cab00164036</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f>A16</f>
+        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="12">
+        <v>4</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="16" t="str">
+        <f t="shared" ref="B27:B28" si="3">A37</f>
+        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f t="shared" ref="C27:C28" si="4">A17</f>
+        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="16" t="str">
-        <f t="shared" ref="B20" si="0">A28</f>
-        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
-      </c>
-      <c r="C20" s="16" t="str">
-        <f>A12</f>
-        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="16" t="str">
-        <f t="shared" ref="B21" si="1">A29</f>
-        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
-      </c>
-      <c r="C21" s="16" t="str">
-        <f>A13</f>
-        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="16" t="str">
-        <f t="shared" ref="B22" si="2">A30</f>
-        <v>18aee330-9587-4332-a671-7cab00164036</v>
-      </c>
-      <c r="C22" s="16" t="str">
-        <f>A14</f>
-        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="12">
+      <c r="H27" s="12">
         <v>4</v>
       </c>
-      <c r="I22" s="12"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="4"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="4"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="I27" s="12"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
+      </c>
+      <c r="C28" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="12">
+        <v>4</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="4"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="4"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B34" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="C35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="12">
+        <v>1</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="12">
+        <v>4</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="12">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="12" t="s">
+      <c r="G37" s="12">
+        <v>4</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D38" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="12">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="12">
+      <c r="G38" s="12">
         <v>4</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="14"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="K31" s="14"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="14"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="K39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C31:I31"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1251D057-6E04-D947-8943-E20C2FCFACF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F555D13-D9AF-A440-912F-65D8E4E11481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43720" yWindow="-14760" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -254,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>读取流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>542372d2-f1a1-4b46-9a3b-5e75f20be131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/up/flow/:code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开启工作流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -327,10 +319,6 @@
   </si>
   <si>
     <t>perm.up.flow-form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>perm.up.flow.code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -366,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>act.up.flow.code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>act.up.flow-form</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +403,22 @@
   </si>
   <si>
     <t>/api/up/flow/complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-definition/:code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取流程定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow-definition.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow-definition.code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,15 +1058,15 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="3" width="54.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.5" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -1122,10 +1122,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -1133,13 +1133,13 @@
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -1252,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>54</v>
@@ -1262,16 +1262,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>62</v>
@@ -1279,33 +1279,33 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>54</v>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>54</v>
@@ -1416,13 +1416,13 @@
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>56</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="16" t="str">
         <f t="shared" ref="B25" si="1">A35</f>
@@ -1445,16 +1445,16 @@
         <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="16" t="str">
         <f t="shared" ref="B26" si="2">A36</f>
@@ -1475,16 +1475,16 @@
         <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="12">
         <v>4</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B27" s="16" t="str">
         <f t="shared" ref="B27:B28" si="3">A37</f>
@@ -1505,16 +1505,16 @@
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H27" s="12">
         <v>4</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" si="3"/>
@@ -1535,16 +1535,16 @@
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="12">
         <v>4</v>
@@ -1656,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>54</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>63</v>
@@ -1681,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>62</v>
@@ -1697,19 +1697,19 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>42</v>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>54</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>54</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F555D13-D9AF-A440-912F-65D8E4E11481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A8332-138C-6341-8042-675577761EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43720" yWindow="-14760" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/up/flow/queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/up/flow-form/:pre</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -419,6 +415,10 @@
   </si>
   <si>
     <t>perm.up.flow-definition.code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-queue/:request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1122,10 +1122,10 @@
         <v>60</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -1136,10 +1136,10 @@
         <v>64</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -1150,10 +1150,10 @@
         <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -1161,13 +1161,13 @@
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -1252,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>54</v>
@@ -1265,13 +1265,13 @@
         <v>65</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>62</v>
@@ -1288,7 +1288,7 @@
         <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>69</v>
@@ -1296,16 +1296,16 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>54</v>
@@ -1313,16 +1313,16 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>54</v>
@@ -1416,13 +1416,13 @@
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="G24" s="12" t="s">
         <v>56</v>
@@ -1445,16 +1445,16 @@
         <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="H25" s="12">
         <v>1</v>
@@ -1475,13 +1475,13 @@
         <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G26" s="12" t="s">
         <v>70</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="16" t="str">
         <f t="shared" ref="B27:B28" si="3">A37</f>
@@ -1505,16 +1505,16 @@
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H27" s="12">
         <v>4</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" si="3"/>
@@ -1535,16 +1535,16 @@
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="12">
         <v>4</v>
@@ -1656,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>54</v>
@@ -1681,7 +1681,7 @@
         <v>37</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>62</v>
@@ -1706,7 +1706,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>69</v>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>54</v>
@@ -1747,16 +1747,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>54</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A8332-138C-6341-8042-675577761EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42896FE3-FBB8-7944-A000-5115551007EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43720" yWindow="-14760" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -418,7 +418,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/up/flow-queue/:request</t>
+    <t>/api/up/flow-queue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,7 +1058,7 @@
   <dimension ref="A2:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42896FE3-FBB8-7944-A000-5115551007EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE4C16-1214-2B4D-803E-17249DDF3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43720" yWindow="-14760" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="68720" yWindow="-11900" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
   <si>
     <t>key</t>
   </si>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我的待办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2df451a8-4594-442c-9438-255e40672a0e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +243,6 @@
   </si>
   <si>
     <t>w.flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按编码读取流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +411,40 @@
   </si>
   <si>
     <t>/api/up/flow-queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取待办单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8ba5f939-3c61-4809-b278-3c0f000bb018</t>
+  </si>
+  <si>
+    <t>perm.up.flow.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d111c33c-dca8-4c40-ad46-1c1a6aeee526</t>
+  </si>
+  <si>
+    <t>/api/up/flow/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow.key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bf2ca70b-326e-48ac-bd76-19bfad2b34ac</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>671f658b-5654-4838-b0ec-def790b91dc9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1055,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1119,13 +1145,13 @@
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -1133,13 +1159,13 @@
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -1147,13 +1173,13 @@
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -1161,13 +1187,13 @@
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -1175,376 +1201,318 @@
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:9" s="22" customFormat="1">
+      <c r="A10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>54</v>
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="A15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>78</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C24" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="5" t="s">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="7" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F26" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="16" t="str">
-        <f t="shared" ref="B24" si="0">A34</f>
-        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
-      </c>
-      <c r="C24" s="16" t="str">
-        <f>A14</f>
-        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="12">
-        <v>1</v>
-      </c>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="16" t="str">
-        <f t="shared" ref="B25" si="1">A35</f>
-        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
-      </c>
-      <c r="C25" s="16" t="str">
-        <f>A15</f>
-        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="12">
-        <v>1</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="16" t="str">
-        <f t="shared" ref="B26" si="2">A36</f>
-        <v>18aee330-9587-4332-a671-7cab00164036</v>
-      </c>
-      <c r="C26" s="16" t="str">
-        <f>A16</f>
-        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="12">
-        <v>4</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="10" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="B27" s="16" t="str">
-        <f t="shared" ref="B27:B28" si="3">A37</f>
-        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+        <f>A38</f>
+        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
       <c r="C27" s="16" t="str">
-        <f t="shared" ref="C27:C28" si="4">A17</f>
-        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
+        <f>A16</f>
+        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="H27" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I27" s="12"/>
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="10" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B28" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
+        <f>A39</f>
+        <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
       <c r="C28" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
+        <f>A17</f>
+        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H28" s="12">
         <v>4</v>
@@ -1553,235 +1521,373 @@
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="4"/>
-      <c r="K29" s="14"/>
+      <c r="A29" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="16" t="str">
+        <f t="shared" ref="B29" si="0">A40</f>
+        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
+      </c>
+      <c r="C29" s="16" t="str">
+        <f>A18</f>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="12">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="4"/>
+      <c r="A30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="16" t="str">
+        <f t="shared" ref="B30:B31" si="1">A41</f>
+        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f t="shared" ref="C30:C31" si="2">A19</f>
+        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="12">
+        <v>4</v>
+      </c>
+      <c r="I30" s="12"/>
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f t="shared" si="2"/>
+        <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="12">
+        <v>4</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f t="shared" ref="B32" si="3">A43</f>
+        <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f t="shared" ref="C32" si="4">A21</f>
+        <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="12">
         <v>1</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="I32" s="12"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="4"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="4"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C35" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="5" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G36" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="18" t="s">
+      <c r="H36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I36" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="7" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G34" s="12">
-        <v>1</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="12">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="12">
-        <v>4</v>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G37" s="12">
-        <v>4</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G38" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="14"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="K39" s="14"/>
+      <c r="A39" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" s="12">
+        <v>4</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="12">
+        <v>4</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" s="12">
+        <v>4</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="12">
+        <v>1</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="K43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="C35:I35"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AE4C16-1214-2B4D-803E-17249DDF3C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B13817-8890-0240-8DA6-049346FC1472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68720" yWindow="-11900" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="39900" yWindow="-16960" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
   <si>
     <t>key</t>
   </si>
@@ -445,6 +445,74 @@
   </si>
   <si>
     <t>671f658b-5654-4838-b0ec-def790b91dc9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存草稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量执行工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee28b115-1345-40a7-bd10-bc61607eebbc</t>
+  </si>
+  <si>
+    <t>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</t>
+  </si>
+  <si>
+    <t>46743280-692c-4561-a7bb-c8668578fff3</t>
+  </si>
+  <si>
+    <t>a983265a-60d3-4b53-af7b-1553ea7a8927</t>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7093fb25-6740-414a-bdce-70e49f944395</t>
+  </si>
+  <si>
+    <t>449f53a9-12ab-46ab-b4ac-2750b7f59f52</t>
+  </si>
+  <si>
+    <t>res.up.flow.saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88a44181-49c1-4de6-a11a-b3696e6511b5</t>
+  </si>
+  <si>
+    <t>58dd99a7-0237-4b49-aad9-e3fe5f2da4d4</t>
+  </si>
+  <si>
+    <t>act.up.flow.saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow.batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/batch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K43"/>
+  <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1227,667 +1295,839 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="A11" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="22" customFormat="1">
+      <c r="A12" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="A16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="5" t="s">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="7" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="17" t="s">
+      <c r="D30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E30" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F30" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H30" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="16" t="str">
-        <f>A38</f>
-        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
-      </c>
-      <c r="C27" s="16" t="str">
-        <f>A16</f>
-        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="12">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="16" t="str">
-        <f>A39</f>
-        <v>18aee330-9587-4332-a671-7cab00164036</v>
-      </c>
-      <c r="C28" s="16" t="str">
-        <f>A17</f>
-        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="12">
-        <v>4</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="16" t="str">
-        <f t="shared" ref="B29" si="0">A40</f>
-        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
-      </c>
-      <c r="C29" s="16" t="str">
-        <f>A18</f>
-        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="12">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B30" s="16" t="str">
-        <f t="shared" ref="B30:B31" si="1">A41</f>
-        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
-      </c>
-      <c r="C30" s="16" t="str">
-        <f t="shared" ref="C30:C31" si="2">A19</f>
-        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H30" s="12">
-        <v>4</v>
-      </c>
-      <c r="I30" s="12"/>
-      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="16" t="str">
+        <f>A44</f>
+        <v>26cf9250-1238-4c23-9017-0284298412a9</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f>A18</f>
+        <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="H31" s="12">
+        <v>1</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="16" t="str">
+        <f>A45</f>
+        <v>18aee330-9587-4332-a671-7cab00164036</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f>A19</f>
+        <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="12">
+        <v>4</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="16" t="str">
+        <f t="shared" ref="B33" si="0">A46</f>
+        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>A20</f>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="12">
+        <v>1</v>
+      </c>
+      <c r="I33" s="12"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f t="shared" ref="B34:B35" si="1">A47</f>
+        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>A21</f>
+        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="12">
+        <v>4</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B35" s="16" t="str">
         <f t="shared" si="1"/>
         <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
       </c>
-      <c r="C31" s="16" t="str">
-        <f t="shared" si="2"/>
+      <c r="C35" s="16" t="str">
+        <f>A22</f>
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E35" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="12">
-        <v>4</v>
-      </c>
-      <c r="I31" s="12"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="10" t="s">
+      <c r="H35" s="12">
+        <v>8</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="16" t="str">
-        <f t="shared" ref="B32" si="3">A43</f>
+      <c r="B36" s="16" t="str">
+        <f t="shared" ref="B36" si="2">A49</f>
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
-      <c r="C32" s="16" t="str">
-        <f t="shared" ref="C32" si="4">A21</f>
+      <c r="C36" s="16" t="str">
+        <f t="shared" ref="C36" si="3">A23</f>
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H36" s="12">
         <v>1</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="4"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="4"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>35</v>
-      </c>
+      <c r="I36" s="12"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="A37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" s="16" t="str">
+        <f t="shared" ref="B37:B38" si="4">A50</f>
+        <v>7093fb25-6740-414a-bdce-70e49f944395</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f t="shared" ref="C37:C38" si="5">A24</f>
+        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="12">
+        <v>8</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" s="16" t="str">
+        <f t="shared" si="4"/>
+        <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="12">
+        <v>8</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="4"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="4"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C44" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D44" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G44" s="12">
         <v>1</v>
       </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B45" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D45" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G45" s="12">
         <v>4</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D46" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G46" s="12">
         <v>1</v>
       </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D47" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G47" s="12">
         <v>4</v>
       </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B48" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F48" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="12">
-        <v>4</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="10" t="s">
+      <c r="G48" s="12">
+        <v>8</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B49" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G49" s="12">
         <v>1</v>
       </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="K43" s="14"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G50" s="12">
+        <v>8</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="12">
+        <v>8</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C41:I41"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B13817-8890-0240-8DA6-049346FC1472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2265845-2EBC-C14E-A193-05C8CEC6F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39900" yWindow="-16960" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="56280" yWindow="-5620" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
   <si>
     <t>key</t>
   </si>
@@ -513,6 +513,34 @@
   </si>
   <si>
     <t>/api/up/flow/batch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历史队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>befade91-d49d-4243-8d67-a0037cccea19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5d8ecaa9-7c46-44df-ad68-64fc02c6c7be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.up.flow.history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-history</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +833,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1149,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K51"/>
+  <dimension ref="A2:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1595,7 +1633,7 @@
         <v>65</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>A44</f>
+        <f>A46</f>
         <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
       <c r="C31" s="16" t="str">
@@ -1625,7 +1663,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>A45</f>
+        <f>A47</f>
         <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
       <c r="C32" s="16" t="str">
@@ -1655,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f t="shared" ref="B33" si="0">A46</f>
+        <f t="shared" ref="B33:B34" si="0">A48</f>
         <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C33" s="16" t="str">
@@ -1681,312 +1719,303 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>befade91-d49d-4243-8d67-a0037cccea19</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>A20</f>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="12">
+        <v>1</v>
+      </c>
+      <c r="I34" s="12"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B34" s="16" t="str">
-        <f t="shared" ref="B34:B35" si="1">A47</f>
+      <c r="B35" s="16" t="str">
+        <f t="shared" ref="B35:B36" si="1">A50</f>
         <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C35" s="16" t="str">
         <f>A21</f>
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H35" s="12">
         <v>4</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
+      <c r="I35" s="12"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B36" s="16" t="str">
         <f t="shared" si="1"/>
         <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C36" s="16" t="str">
         <f>A22</f>
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E36" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H36" s="12">
         <v>8</v>
-      </c>
-      <c r="I35" s="12"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="16" t="str">
-        <f t="shared" ref="B36" si="2">A49</f>
-        <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
-      </c>
-      <c r="C36" s="16" t="str">
-        <f t="shared" ref="C36" si="3">A23</f>
-        <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="12">
-        <v>1</v>
       </c>
       <c r="I36" s="12"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37:B38" si="4">A50</f>
-        <v>7093fb25-6740-414a-bdce-70e49f944395</v>
+        <f t="shared" ref="B37" si="2">A52</f>
+        <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
       <c r="C37" s="16" t="str">
-        <f t="shared" ref="C37:C38" si="5">A24</f>
-        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
+        <f t="shared" ref="C37" si="3">A23</f>
+        <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H37" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I37" s="12"/>
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="16" t="str">
+        <f t="shared" ref="B38:B39" si="4">A53</f>
+        <v>7093fb25-6740-414a-bdce-70e49f944395</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f t="shared" ref="C38:C39" si="5">A24</f>
+        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" s="12">
+        <v>8</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B39" s="16" t="str">
         <f t="shared" si="4"/>
         <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C39" s="16" t="str">
         <f t="shared" si="5"/>
         <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H39" s="12">
         <v>8</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="4"/>
+      <c r="I39" s="12"/>
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="4"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="4"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C43" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="5" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C44" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G44" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H44" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I42" s="18" t="s">
+      <c r="I44" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="7" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D45" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G44" s="12">
-        <v>1</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="12">
-        <v>4</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>42</v>
@@ -1999,19 +2028,19 @@
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>42</v>
@@ -2024,16 +2053,16 @@
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>54</v>
@@ -2042,23 +2071,23 @@
         <v>42</v>
       </c>
       <c r="G48" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>54</v>
@@ -2071,20 +2100,19 @@
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
-      <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>54</v>
@@ -2093,23 +2121,23 @@
         <v>42</v>
       </c>
       <c r="G50" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>54</v>
@@ -2122,12 +2150,99 @@
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="12">
+        <v>1</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="12">
+        <v>8</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="12">
+        <v>8</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="33"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C43:I43"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2265845-2EBC-C14E-A193-05C8CEC6F781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA43553-738A-2449-BE7C-4C0B4686E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56280" yWindow="-5620" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
   <si>
     <t>key</t>
   </si>
@@ -541,6 +541,28 @@
   </si>
   <si>
     <t>/api/up/flow-history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a9b620eb-795d-4bb6-86c3-5f0491e0a178</t>
+  </si>
+  <si>
+    <t>取消工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83756abe-17f1-4e91-98dd-6800cbdb7dfb</t>
+  </si>
+  <si>
+    <t>act.up.flow.cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/cancel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,24 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +847,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1187,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K55"/>
+  <dimension ref="A2:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1215,8 +1237,8 @@
       <c r="B2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -1368,11 +1390,11 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="I15" s="3"/>
@@ -1560,15 +1582,15 @@
       <c r="B28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="5" t="s">
@@ -1633,7 +1655,7 @@
         <v>65</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>A46</f>
+        <f>A47</f>
         <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
       <c r="C31" s="16" t="str">
@@ -1663,7 +1685,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>A47</f>
+        <f>A48</f>
         <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
       <c r="C32" s="16" t="str">
@@ -1693,7 +1715,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f t="shared" ref="B33:B34" si="0">A48</f>
+        <f t="shared" ref="B33:B34" si="0">A49</f>
         <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C33" s="16" t="str">
@@ -1751,7 +1773,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f t="shared" ref="B35:B36" si="1">A50</f>
+        <f t="shared" ref="B35:B36" si="1">A51</f>
         <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
       </c>
       <c r="C35" s="16" t="str">
@@ -1811,7 +1833,7 @@
         <v>113</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37" si="2">A52</f>
+        <f t="shared" ref="B37" si="2">A53</f>
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
       <c r="C37" s="16" t="str">
@@ -1841,11 +1863,11 @@
         <v>128</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f t="shared" ref="B38:B39" si="4">A53</f>
+        <f>A54</f>
         <v>7093fb25-6740-414a-bdce-70e49f944395</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f t="shared" ref="C38:C39" si="5">A24</f>
+        <f>A24</f>
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
       <c r="D38" s="13" t="s">
@@ -1868,27 +1890,27 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f t="shared" si="4"/>
-        <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
+        <f>A55</f>
+        <v>a9b620eb-795d-4bb6-86c3-5f0491e0a178</v>
       </c>
       <c r="C39" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
+        <f>A24</f>
+        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>123</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="H39" s="12">
         <v>8</v>
@@ -1897,24 +1919,45 @@
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="A40" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="16" t="str">
+        <f t="shared" ref="B40" si="4">A56</f>
+        <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
+      </c>
+      <c r="C40" s="16" t="str">
+        <f>A25</f>
+        <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="12">
+        <v>8</v>
+      </c>
+      <c r="I40" s="12"/>
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="4"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11">
@@ -1927,167 +1970,151 @@
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="4"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C44" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="5" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="18" t="s">
+      <c r="G45" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H44" s="18" t="s">
+      <c r="H45" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I44" s="18" t="s">
+      <c r="I45" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="7" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D46" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H46" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I46" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G46" s="12">
-        <v>1</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G47" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G48" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>54</v>
@@ -2103,16 +2130,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>54</v>
@@ -2121,23 +2148,23 @@
         <v>42</v>
       </c>
       <c r="G50" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>54</v>
@@ -2146,23 +2173,23 @@
         <v>42</v>
       </c>
       <c r="G51" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>54</v>
@@ -2171,24 +2198,23 @@
         <v>42</v>
       </c>
       <c r="G52" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
-      <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>54</v>
@@ -2197,23 +2223,24 @@
         <v>42</v>
       </c>
       <c r="G53" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
+      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>54</v>
@@ -2228,21 +2255,60 @@
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="33"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="36"/>
+      <c r="A55" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="12">
+        <v>8</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="12">
+        <v>8</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:I44"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA43553-738A-2449-BE7C-4C0B4686E8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01636824-9998-6A4F-8199-06123232792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56280" yWindow="-5620" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
   <si>
     <t>key</t>
   </si>
@@ -425,10 +425,6 @@
     <t>8ba5f939-3c61-4809-b278-3c0f000bb018</t>
   </si>
   <si>
-    <t>perm.up.flow.key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d111c33c-dca8-4c40-ad46-1c1a6aeee526</t>
   </si>
   <si>
@@ -563,6 +559,36 @@
   </si>
   <si>
     <t>/api/up/flow/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取历史待办</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a19e4a8-e39c-42ee-99db-c41a8e887b52</t>
+  </si>
+  <si>
+    <t>bdeb4614-8914-4a1d-af4b-1dcd6b30b56c</t>
+  </si>
+  <si>
+    <t>act.up.flow.finished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-finished/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取历史单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>perm.up.flow.fetch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1209,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K56"/>
+  <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1343,10 +1369,10 @@
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>83</v>
@@ -1357,10 +1383,10 @@
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>83</v>
@@ -1371,10 +1397,10 @@
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>83</v>
@@ -1526,7 +1552,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>107</v>
@@ -1535,7 +1561,7 @@
         <v>107</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>54</v>
@@ -1543,16 +1569,16 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>54</v>
@@ -1560,16 +1586,16 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>54</v>
@@ -1655,7 +1681,7 @@
         <v>65</v>
       </c>
       <c r="B31" s="16" t="str">
-        <f>A47</f>
+        <f>A48</f>
         <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
       <c r="C31" s="16" t="str">
@@ -1685,7 +1711,7 @@
         <v>72</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>A48</f>
+        <f>A49</f>
         <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
       <c r="C32" s="16" t="str">
@@ -1715,7 +1741,7 @@
         <v>57</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f t="shared" ref="B33:B34" si="0">A49</f>
+        <f t="shared" ref="B33:B34" si="0">A50</f>
         <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C33" s="16" t="str">
@@ -1741,7 +1767,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B34" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1752,16 +1778,16 @@
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" s="12">
         <v>1</v>
@@ -1773,7 +1799,7 @@
         <v>95</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f t="shared" ref="B35:B36" si="1">A51</f>
+        <f t="shared" ref="B35:B36" si="1">A52</f>
         <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
       </c>
       <c r="C35" s="16" t="str">
@@ -1814,7 +1840,7 @@
         <v>98</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>100</v>
@@ -1830,24 +1856,24 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37" si="2">A53</f>
+        <f t="shared" ref="B37:B38" si="2">A54</f>
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
       <c r="C37" s="16" t="str">
-        <f t="shared" ref="C37" si="3">A23</f>
+        <f t="shared" ref="C37:C38" si="3">A23</f>
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>107</v>
@@ -1860,57 +1886,57 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B38" s="16" t="str">
-        <f>A54</f>
-        <v>7093fb25-6740-414a-bdce-70e49f944395</v>
+        <f t="shared" si="2"/>
+        <v>1a19e4a8-e39c-42ee-99db-c41a8e887b52</v>
       </c>
       <c r="C38" s="16" t="str">
-        <f>A24</f>
-        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
+        <f>A23</f>
+        <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H38" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I38" s="12"/>
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f>A55</f>
-        <v>a9b620eb-795d-4bb6-86c3-5f0491e0a178</v>
+        <f>A56</f>
+        <v>7093fb25-6740-414a-bdce-70e49f944395</v>
       </c>
       <c r="C39" s="16" t="str">
         <f>A24</f>
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H39" s="12">
         <v>8</v>
@@ -1920,53 +1946,74 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B40" s="16" t="str">
-        <f t="shared" ref="B40" si="4">A56</f>
+        <f>A57</f>
+        <v>a9b620eb-795d-4bb6-86c3-5f0491e0a178</v>
+      </c>
+      <c r="C40" s="16" t="str">
+        <f>A24</f>
+        <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" s="12">
+        <v>8</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="16" t="str">
+        <f t="shared" ref="B41" si="4">A58</f>
         <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C41" s="16" t="str">
         <f>A25</f>
         <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H40" s="12">
+      <c r="D41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" s="12">
         <v>8</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+      <c r="I41" s="12"/>
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11">
@@ -1979,167 +2026,151 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="4"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C45" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="5" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D46" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G45" s="18" t="s">
+      <c r="G46" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H45" s="18" t="s">
+      <c r="H46" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I45" s="18" t="s">
+      <c r="I46" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="7" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D47" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I47" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="12">
-        <v>1</v>
-      </c>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="10" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G48" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="10" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G49" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>54</v>
@@ -2155,16 +2186,16 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>54</v>
@@ -2173,23 +2204,23 @@
         <v>42</v>
       </c>
       <c r="G51" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>54</v>
@@ -2198,23 +2229,23 @@
         <v>42</v>
       </c>
       <c r="G52" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>54</v>
@@ -2223,24 +2254,23 @@
         <v>42</v>
       </c>
       <c r="G53" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
-      <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>54</v>
@@ -2249,23 +2279,24 @@
         <v>42</v>
       </c>
       <c r="G54" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
+      <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>54</v>
@@ -2274,23 +2305,24 @@
         <v>42</v>
       </c>
       <c r="G55" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
+      <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>54</v>
@@ -2303,12 +2335,62 @@
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="12">
+        <v>8</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="12">
+        <v>8</v>
+      </c>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C45:I45"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01636824-9998-6A4F-8199-06123232792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72130755-0633-9740-AFF5-8089604CDB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56280" yWindow="-5620" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="155">
   <si>
     <t>key</t>
   </si>
@@ -589,6 +589,10 @@
   </si>
   <si>
     <t>perm.up.flow.fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.ui</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1237,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
   <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1863,7 +1867,7 @@
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
       <c r="C37" s="16" t="str">
-        <f t="shared" ref="C37:C38" si="3">A23</f>
+        <f t="shared" ref="C37" si="3">A23</f>
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D37" s="13" t="s">
@@ -2151,7 +2155,7 @@
         <v>67</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="G49" s="12">
         <v>4</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72130755-0633-9740-AFF5-8089604CDB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3354E8-9051-E843-9CFC-0964E2661068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56280" yWindow="-5620" windowWidth="39340" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
   <si>
     <t>key</t>
   </si>
@@ -593,6 +593,32 @@
   </si>
   <si>
     <t>resource.ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ec2568d0-b65e-45eb-8c90-f3c183add42c</t>
+  </si>
+  <si>
+    <t>e73567c7-f4dd-4b2e-bd3f-3ec9f2e80d45</t>
+  </si>
+  <si>
+    <t>act.up.flow.ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow-ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联工单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.up.flow.ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w.ticket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -805,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,6 +923,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K58"/>
+  <dimension ref="A2:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1605,193 +1632,171 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C29" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="5" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="7" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F31" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="10" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="16" t="str">
-        <f>A48</f>
+      <c r="B32" s="16" t="str">
+        <f>A50</f>
         <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C32" s="16" t="str">
         <f>A18</f>
         <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D32" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E32" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F32" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G32" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H32" s="12">
         <v>1</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="10" t="s">
+      <c r="I32" s="12"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="16" t="str">
-        <f>A49</f>
+      <c r="B33" s="16" t="str">
+        <f>A51</f>
         <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C33" s="16" t="str">
         <f>A19</f>
         <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="13" t="s">
         <v>87</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="12">
-        <v>4</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="16" t="str">
-        <f t="shared" ref="B33:B34" si="0">A50</f>
-        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
-      </c>
-      <c r="C33" s="16" t="str">
-        <f>A20</f>
-        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>86</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="H33" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33" s="12"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>befade91-d49d-4243-8d67-a0037cccea19</v>
+        <f t="shared" ref="B34:B36" si="0">A52</f>
+        <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C34" s="16" t="str">
         <f>A20</f>
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>60</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="H34" s="12">
         <v>1</v>
@@ -1800,384 +1805,392 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B35" s="16" t="str">
-        <f t="shared" ref="B35:B36" si="1">A52</f>
-        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+        <f t="shared" si="0"/>
+        <v>befade91-d49d-4243-8d67-a0037cccea19</v>
       </c>
       <c r="C35" s="16" t="str">
+        <f>A20</f>
+        <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1</v>
+      </c>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>e73567c7-f4dd-4b2e-bd3f-3ec9f2e80d45</v>
+      </c>
+      <c r="C36" s="16" t="str">
         <f>A21</f>
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1</v>
+      </c>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="16" t="str">
+        <f t="shared" ref="B37:B38" si="1">A55</f>
+        <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f>A21</f>
+        <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E37" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G37" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H37" s="12">
         <v>4</v>
       </c>
-      <c r="I35" s="12"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
+      <c r="I37" s="12"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B38" s="16" t="str">
         <f t="shared" si="1"/>
         <v>d62b8b6f-b0b8-4170-b8fe-6a71e6b005c0</v>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C38" s="16" t="str">
         <f>A22</f>
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E38" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G38" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H38" s="12">
         <v>8</v>
       </c>
-      <c r="I36" s="12"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
+      <c r="I38" s="12"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37:B38" si="2">A54</f>
+      <c r="B39" s="16" t="str">
+        <f t="shared" ref="B39:B40" si="2">A57</f>
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
-      <c r="C37" s="16" t="str">
-        <f t="shared" ref="C37" si="3">A23</f>
+      <c r="C39" s="16" t="str">
+        <f t="shared" ref="C39" si="3">A23</f>
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G39" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H39" s="12">
         <v>1</v>
       </c>
-      <c r="I37" s="12"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
+      <c r="I39" s="12"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B40" s="16" t="str">
         <f t="shared" si="2"/>
         <v>1a19e4a8-e39c-42ee-99db-c41a8e887b52</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C40" s="16" t="str">
         <f>A23</f>
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D40" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F40" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G40" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H40" s="12">
         <v>1</v>
       </c>
-      <c r="I38" s="12"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
+      <c r="I40" s="12"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="16" t="str">
-        <f>A56</f>
+      <c r="B41" s="16" t="str">
+        <f>A59</f>
         <v>7093fb25-6740-414a-bdce-70e49f944395</v>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C41" s="16" t="str">
         <f>A24</f>
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D41" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F41" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H41" s="12">
         <v>8</v>
       </c>
-      <c r="I39" s="12"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
+      <c r="I41" s="12"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="16" t="str">
-        <f>A57</f>
+      <c r="B42" s="16" t="str">
+        <f>A60</f>
         <v>a9b620eb-795d-4bb6-86c3-5f0491e0a178</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C42" s="16" t="str">
         <f>A24</f>
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F42" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H42" s="12">
         <v>8</v>
       </c>
-      <c r="I40" s="12"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
+      <c r="I42" s="12"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="16" t="str">
-        <f t="shared" ref="B41" si="4">A58</f>
+      <c r="B43" s="16" t="str">
+        <f t="shared" ref="B43" si="4">A61</f>
         <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C43" s="16" t="str">
         <f>A25</f>
         <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F43" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H43" s="12">
         <v>8</v>
       </c>
-      <c r="I41" s="12"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="4"/>
+      <c r="I43" s="12"/>
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="4"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="4"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="4"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C47" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F48" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G48" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I48" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D49" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H49" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I49" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G49" s="12">
-        <v>4</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>42</v>
@@ -2190,41 +2203,41 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="G51" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>54</v>
@@ -2233,51 +2246,51 @@
         <v>42</v>
       </c>
       <c r="G52" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>42</v>
       </c>
       <c r="G53" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>42</v>
@@ -2287,20 +2300,19 @@
       </c>
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
-      <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>54</v>
@@ -2309,24 +2321,23 @@
         <v>42</v>
       </c>
       <c r="G55" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
-      <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>54</v>
@@ -2342,16 +2353,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>54</v>
@@ -2360,23 +2371,24 @@
         <v>42</v>
       </c>
       <c r="G57" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
+      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>54</v>
@@ -2385,16 +2397,92 @@
         <v>42</v>
       </c>
       <c r="G58" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" s="12">
+        <v>8</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="12">
+        <v>8</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" s="12">
+        <v>8</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C28:I28"/>
-    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="C47:I47"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3354E8-9051-E843-9CFC-0964E2661068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0ECA0E-39D1-EA49-ADEF-1719B3CFBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="44840" yWindow="-2980" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.ambient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,6 +615,10 @@
   </si>
   <si>
     <t>w.ticket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource.flow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -905,6 +905,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -923,7 +924,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1269,7 +1269,7 @@
   <dimension ref="A2:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="F52" sqref="F52:F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1292,26 +1292,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:9" s="22" customFormat="1">
       <c r="A3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D3" s="23" t="s">
         <v>48</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="22" customFormat="1">
@@ -1319,125 +1319,125 @@
         <v>0</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D4" s="24" t="s">
         <v>51</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="22" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="22" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="22" customFormat="1">
       <c r="A7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="22" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="22" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="22" customFormat="1">
       <c r="A11" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="22" customFormat="1">
       <c r="A12" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1447,11 +1447,11 @@
       <c r="B15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="I15" s="3"/>
@@ -1496,147 +1496,147 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="E21" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="27"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="30"/>
     </row>
     <row r="29" spans="1:11">
@@ -1646,15 +1646,15 @@
       <c r="B29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="5" t="s">
@@ -1716,7 +1716,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="16" t="str">
         <f>A50</f>
@@ -1727,16 +1727,16 @@
         <v>84a3d221-5ad8-4f95-84e9-b0d7db1f273e</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="H32" s="12">
         <v>1</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="16" t="str">
         <f>A51</f>
@@ -1757,16 +1757,16 @@
         <v>42a2877f-0ac2-479e-9fee-c15a9fc6e287</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H33" s="12">
         <v>4</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" s="16" t="str">
         <f t="shared" ref="B34:B36" si="0">A52</f>
@@ -1787,16 +1787,16 @@
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H34" s="12">
         <v>1</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B35" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1816,16 +1816,16 @@
         <v>9b712a10-c322-4b96-860b-dac35c63cdfa</v>
       </c>
       <c r="D35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>139</v>
-      </c>
       <c r="G35" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H35" s="12">
         <v>1</v>
@@ -1834,7 +1834,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1845,16 +1845,16 @@
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
       <c r="D36" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="H36" s="12">
         <v>1</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="16" t="str">
         <f t="shared" ref="B37:B38" si="1">A55</f>
@@ -1874,16 +1874,16 @@
         <v>0f0174ff-2f59-4858-9c94-aaa093fe887d</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H37" s="12">
         <v>4</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="16" t="str">
         <f t="shared" si="1"/>
@@ -1904,16 +1904,16 @@
         <v>12bb17f2-233a-4eef-99ca-0037edc55088</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H38" s="12">
         <v>8</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="16" t="str">
         <f t="shared" ref="B39:B40" si="2">A57</f>
@@ -1934,16 +1934,16 @@
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" s="12">
         <v>1</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="16" t="str">
         <f t="shared" si="2"/>
@@ -1964,16 +1964,16 @@
         <v>671f658b-5654-4838-b0ec-def790b91dc9</v>
       </c>
       <c r="D40" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="13" t="s">
+      <c r="G40" s="12" t="s">
         <v>151</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="H40" s="12">
         <v>1</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="16" t="str">
         <f>A59</f>
@@ -1994,16 +1994,16 @@
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" s="12">
         <v>8</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B42" s="16" t="str">
         <f>A60</f>
@@ -2024,16 +2024,16 @@
         <v>ee28b115-1345-40a7-bd10-bc61607eebbc</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="G42" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H42" s="12">
         <v>8</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B43" s="16" t="str">
         <f t="shared" ref="B43" si="4">A61</f>
@@ -2054,16 +2054,16 @@
         <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H43" s="12">
         <v>8</v>
@@ -2108,15 +2108,15 @@
       <c r="B47" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="5" t="s">
@@ -2170,30 +2170,30 @@
         <v>26</v>
       </c>
       <c r="H49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G50" s="12">
         <v>1</v>
@@ -2203,22 +2203,22 @@
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G51" s="12">
         <v>4</v>
@@ -2228,22 +2228,22 @@
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G52" s="12">
         <v>1</v>
@@ -2253,22 +2253,22 @@
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="D53" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>135</v>
-      </c>
       <c r="E53" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G53" s="12">
         <v>1</v>
@@ -2278,22 +2278,22 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B54" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="F54" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="G54" s="12">
         <v>1</v>
@@ -2303,22 +2303,22 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G55" s="12">
         <v>4</v>
@@ -2328,22 +2328,22 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G56" s="12">
         <v>8</v>
@@ -2353,22 +2353,22 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G57" s="12">
         <v>1</v>
@@ -2379,22 +2379,22 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G58" s="12">
         <v>1</v>
@@ -2405,22 +2405,22 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G59" s="12">
         <v>8</v>
@@ -2430,22 +2430,22 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G60" s="12">
         <v>8</v>
@@ -2455,22 +2455,22 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="G61" s="12">
         <v>8</v>

--- a/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
+++ b/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/system.workflow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-wf/src/main/resources/plugin/wf/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0ECA0E-39D1-EA49-ADEF-1719B3CFBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861FB8C2-B850-B348-B551-7D346F53B57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44840" yWindow="-2980" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="168">
   <si>
     <t>key</t>
   </si>
@@ -619,6 +619,28 @@
   </si>
   <si>
     <t>resource.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭工作流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0c235fe1-24fc-4db1-8be6-a131ff7dfd6c</t>
+  </si>
+  <si>
+    <t>res.up.flow.close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>849f2149-4abd-4213-9d47-0d1d0b12d051</t>
+  </si>
+  <si>
+    <t>act.up.flow.close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/up/flow/close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K61"/>
+  <dimension ref="A2:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52:F61"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1719,7 +1741,7 @@
         <v>64</v>
       </c>
       <c r="B32" s="16" t="str">
-        <f>A50</f>
+        <f>A51</f>
         <v>26cf9250-1238-4c23-9017-0284298412a9</v>
       </c>
       <c r="C32" s="16" t="str">
@@ -1749,7 +1771,7 @@
         <v>71</v>
       </c>
       <c r="B33" s="16" t="str">
-        <f>A51</f>
+        <f>A52</f>
         <v>18aee330-9587-4332-a671-7cab00164036</v>
       </c>
       <c r="C33" s="16" t="str">
@@ -1779,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="B34" s="16" t="str">
-        <f t="shared" ref="B34:B36" si="0">A52</f>
+        <f t="shared" ref="B34:B36" si="0">A53</f>
         <v>2df451a8-4594-442c-9438-255e40672a0e</v>
       </c>
       <c r="C34" s="16" t="str">
@@ -1866,7 +1888,7 @@
         <v>94</v>
       </c>
       <c r="B37" s="16" t="str">
-        <f t="shared" ref="B37:B38" si="1">A55</f>
+        <f t="shared" ref="B37:B38" si="1">A56</f>
         <v>3ad173b3-7d69-40ec-9089-97f3ac043b6a</v>
       </c>
       <c r="C37" s="16" t="str">
@@ -1926,7 +1948,7 @@
         <v>111</v>
       </c>
       <c r="B39" s="16" t="str">
-        <f t="shared" ref="B39:B40" si="2">A57</f>
+        <f t="shared" ref="B39:B40" si="2">A58</f>
         <v>8ba5f939-3c61-4809-b278-3c0f000bb018</v>
       </c>
       <c r="C39" s="16" t="str">
@@ -1986,7 +2008,7 @@
         <v>126</v>
       </c>
       <c r="B41" s="16" t="str">
-        <f>A59</f>
+        <f>A60</f>
         <v>7093fb25-6740-414a-bdce-70e49f944395</v>
       </c>
       <c r="C41" s="16" t="str">
@@ -2016,7 +2038,7 @@
         <v>142</v>
       </c>
       <c r="B42" s="16" t="str">
-        <f>A60</f>
+        <f>A61</f>
         <v>a9b620eb-795d-4bb6-86c3-5f0491e0a178</v>
       </c>
       <c r="C42" s="16" t="str">
@@ -2043,27 +2065,27 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="10" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="B43" s="16" t="str">
-        <f t="shared" ref="B43" si="4">A61</f>
-        <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
+        <f>A62</f>
+        <v>0c235fe1-24fc-4db1-8be6-a131ff7dfd6c</v>
       </c>
       <c r="C43" s="16" t="str">
         <f>A25</f>
         <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>121</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="H43" s="12">
         <v>8</v>
@@ -2072,24 +2094,45 @@
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
+      <c r="A44" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="16" t="str">
+        <f t="shared" ref="B44" si="4">A63</f>
+        <v>449f53a9-12ab-46ab-b4ac-2750b7f59f52</v>
+      </c>
+      <c r="C44" s="16" t="str">
+        <f>A25</f>
+        <v>2e349fcf-5739-4bf5-a24b-e60ff0d4e4b1</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="12">
+        <v>8</v>
+      </c>
+      <c r="I44" s="12"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="4"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11">
@@ -2102,170 +2145,154 @@
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="4"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C48" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="5" t="s">
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G49" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H49" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I49" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D50" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I50" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="G50" s="12">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G51" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G52" s="12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="10" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>161</v>
@@ -2278,16 +2305,16 @@
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="10" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>160</v>
@@ -2303,41 +2330,41 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>161</v>
       </c>
       <c r="G55" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>53</v>
@@ -2346,23 +2373,23 @@
         <v>161</v>
       </c>
       <c r="G56" s="12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H56" s="12"/>
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>53</v>
@@ -2371,24 +2398,23 @@
         <v>161</v>
       </c>
       <c r="G57" s="12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
-      <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>53</v>
@@ -2405,16 +2431,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>53</v>
@@ -2423,23 +2449,24 @@
         <v>161</v>
       </c>
       <c r="G59" s="12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
+      <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>53</v>
@@ -2455,16 +2482,16 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>37</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>53</v>
@@ -2477,12 +2504,62 @@
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62" s="12">
+        <v>8</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" s="12">
+        <v>8</v>
+      </c>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="C29:I29"/>
-    <mergeCell ref="C47:I47"/>
+    <mergeCell ref="C48:I48"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
